--- a/release.xlsx
+++ b/release.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>release</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,14 +366,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/release.xlsx
+++ b/release.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>release</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -382,6 +382,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
